--- a/Data_frame/balancos_definitivos/ARCZ3.xlsx
+++ b/Data_frame/balancos_definitivos/ARCZ3.xlsx
@@ -8507,7 +8507,7 @@
         <v>375600</v>
       </c>
       <c r="K57" t="n">
-        <v>390264.96</v>
+        <v>390264.992</v>
       </c>
       <c r="L57" t="n">
         <v>303772.992</v>
@@ -8519,7 +8519,7 @@
         <v>371400.992</v>
       </c>
       <c r="O57" t="n">
-        <v>371161.024</v>
+        <v>371161.056</v>
       </c>
       <c r="P57" t="n">
         <v>314792.992</v>
@@ -8543,7 +8543,7 @@
         <v>910393.024</v>
       </c>
       <c r="W57" t="n">
-        <v>967178.752</v>
+        <v>967178.944</v>
       </c>
       <c r="X57" t="n">
         <v>821121.024</v>
@@ -8555,7 +8555,7 @@
         <v>1018214.976</v>
       </c>
       <c r="AA57" t="n">
-        <v>1019556.864</v>
+        <v>1019556.992</v>
       </c>
       <c r="AB57" t="n">
         <v>905320</v>
@@ -8591,7 +8591,7 @@
         <v>1043950.016</v>
       </c>
       <c r="AM57" t="n">
-        <v>1125543.936</v>
+        <v>1125544.192</v>
       </c>
       <c r="AN57" t="n">
         <v>1009753.984</v>
@@ -8603,7 +8603,7 @@
         <v>941745.9840000001</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1138803.712</v>
+        <v>1138803.968</v>
       </c>
       <c r="AR57" t="n">
         <v>988219.008</v>
@@ -8731,7 +8731,7 @@
         <v>-119682</v>
       </c>
       <c r="AM58" t="n">
-        <v>-119462.016</v>
+        <v>-119462.008</v>
       </c>
       <c r="AN58" t="n">
         <v>-114770</v>
@@ -8811,7 +8811,7 @@
         <v>635641.024</v>
       </c>
       <c r="S59" t="n">
-        <v>721452.032</v>
+        <v>721451.968</v>
       </c>
       <c r="T59" t="n">
         <v>763046.0159999999</v>
@@ -8835,7 +8835,7 @@
         <v>886256</v>
       </c>
       <c r="AA59" t="n">
-        <v>894173.952</v>
+        <v>894174.0159999999</v>
       </c>
       <c r="AB59" t="n">
         <v>790825.024</v>
@@ -8847,7 +8847,7 @@
         <v>787251.968</v>
       </c>
       <c r="AE59" t="n">
-        <v>941681.92</v>
+        <v>941681.9840000001</v>
       </c>
       <c r="AF59" t="n">
         <v>898926.0159999999</v>
@@ -8859,7 +8859,7 @@
         <v>997601.024</v>
       </c>
       <c r="AI59" t="n">
-        <v>1038465.792</v>
+        <v>1038465.92</v>
       </c>
       <c r="AJ59" t="n">
         <v>889102.0159999999</v>
@@ -8871,7 +8871,7 @@
         <v>924268.032</v>
       </c>
       <c r="AM59" t="n">
-        <v>1006082.048</v>
+        <v>1006081.984</v>
       </c>
       <c r="AN59" t="n">
         <v>894984</v>
@@ -8915,7 +8915,7 @@
         <v>-99909</v>
       </c>
       <c r="G60" t="n">
-        <v>-131230.016</v>
+        <v>-131230.008</v>
       </c>
       <c r="H60" t="n">
         <v>-124209</v>
@@ -8963,7 +8963,7 @@
         <v>-428553.984</v>
       </c>
       <c r="W60" t="n">
-        <v>-460876.096</v>
+        <v>-460876.064</v>
       </c>
       <c r="X60" t="n">
         <v>-391479.008</v>
@@ -8975,7 +8975,7 @@
         <v>-476419.008</v>
       </c>
       <c r="AA60" t="n">
-        <v>-501465.856</v>
+        <v>-501465.92</v>
       </c>
       <c r="AB60" t="n">
         <v>-413217.984</v>
@@ -8987,7 +8987,7 @@
         <v>-447526.016</v>
       </c>
       <c r="AE60" t="n">
-        <v>-585085.952</v>
+        <v>-585086.08</v>
       </c>
       <c r="AF60" t="n">
         <v>-565062.0159999999</v>
@@ -9011,7 +9011,7 @@
         <v>-592195.968</v>
       </c>
       <c r="AM60" t="n">
-        <v>-677550.848</v>
+        <v>-677550.976</v>
       </c>
       <c r="AN60" t="n">
         <v>-606636.992</v>
@@ -9023,7 +9023,7 @@
         <v>-589777.9840000001</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-703948.032</v>
+        <v>-703947.968</v>
       </c>
       <c r="AR60" t="n">
         <v>-764008</v>
@@ -9079,7 +9079,7 @@
         <v>135686</v>
       </c>
       <c r="O61" t="n">
-        <v>133339.008</v>
+        <v>133339.024</v>
       </c>
       <c r="P61" t="n">
         <v>94327</v>
@@ -9091,7 +9091,7 @@
         <v>346419.008</v>
       </c>
       <c r="S61" t="n">
-        <v>396105.024</v>
+        <v>396104.992</v>
       </c>
       <c r="T61" t="n">
         <v>429656.992</v>
@@ -9103,7 +9103,7 @@
         <v>410348</v>
       </c>
       <c r="W61" t="n">
-        <v>412256</v>
+        <v>412256.032</v>
       </c>
       <c r="X61" t="n">
         <v>350199.008</v>
@@ -9115,7 +9115,7 @@
         <v>409836.992</v>
       </c>
       <c r="AA61" t="n">
-        <v>392708.096</v>
+        <v>392708.064</v>
       </c>
       <c r="AB61" t="n">
         <v>377607.008</v>
@@ -9127,7 +9127,7 @@
         <v>339726.016</v>
       </c>
       <c r="AE61" t="n">
-        <v>356595.84</v>
+        <v>356595.904</v>
       </c>
       <c r="AF61" t="n">
         <v>333864</v>
@@ -9139,7 +9139,7 @@
         <v>411480</v>
       </c>
       <c r="AI61" t="n">
-        <v>423094.016</v>
+        <v>423094.048</v>
       </c>
       <c r="AJ61" t="n">
         <v>352108</v>
@@ -9151,7 +9151,7 @@
         <v>332072</v>
       </c>
       <c r="AM61" t="n">
-        <v>328530.944</v>
+        <v>328530.976</v>
       </c>
       <c r="AN61" t="n">
         <v>288347.008</v>
@@ -9163,7 +9163,7 @@
         <v>256592.992</v>
       </c>
       <c r="AQ61" t="n">
-        <v>317643.904</v>
+        <v>317643.936</v>
       </c>
       <c r="AR61" t="n">
         <v>159408.992</v>
@@ -9464,132 +9464,48 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9671,7 +9587,7 @@
         <v>892510.0159999999</v>
       </c>
       <c r="AA65" t="n">
-        <v>-1661385.088</v>
+        <v>-1661384.96</v>
       </c>
       <c r="AB65" t="n">
         <v>10393</v>
@@ -9823,7 +9739,7 @@
         <v>-29144</v>
       </c>
       <c r="AE66" t="n">
-        <v>-57141.008</v>
+        <v>-57141</v>
       </c>
       <c r="AF66" t="n">
         <v>-48722</v>
@@ -9835,7 +9751,7 @@
         <v>-52671</v>
       </c>
       <c r="AI66" t="n">
-        <v>-42771.008</v>
+        <v>-42771</v>
       </c>
       <c r="AJ66" t="n">
         <v>-57461</v>
@@ -9859,7 +9775,7 @@
         <v>-137171.008</v>
       </c>
       <c r="AQ66" t="n">
-        <v>-95574.976</v>
+        <v>-95574.984</v>
       </c>
       <c r="AR66" t="n">
         <v>4318</v>
@@ -10031,7 +9947,7 @@
         <v>-90361</v>
       </c>
       <c r="G68" t="n">
-        <v>18448.992</v>
+        <v>18449</v>
       </c>
       <c r="H68" t="n">
         <v>-8253</v>
@@ -10067,7 +9983,7 @@
         <v>-499440.992</v>
       </c>
       <c r="S68" t="n">
-        <v>129232.96</v>
+        <v>129232.976</v>
       </c>
       <c r="T68" t="n">
         <v>121154</v>
@@ -10139,7 +10055,7 @@
         <v>-2498228.992</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-3514644.992</v>
+        <v>-3514645.248</v>
       </c>
       <c r="AR68" t="n">
         <v>-60612</v>
@@ -10171,7 +10087,7 @@
         <v>131749</v>
       </c>
       <c r="G69" t="n">
-        <v>-48257.024</v>
+        <v>-48257</v>
       </c>
       <c r="H69" t="n">
         <v>22551</v>
@@ -10195,7 +10111,7 @@
         <v>254911.008</v>
       </c>
       <c r="O69" t="n">
-        <v>-116132</v>
+        <v>-116132.008</v>
       </c>
       <c r="P69" t="n">
         <v>26730</v>
@@ -10207,7 +10123,7 @@
         <v>304980.992</v>
       </c>
       <c r="S69" t="n">
-        <v>-37097.984</v>
+        <v>-37097.992</v>
       </c>
       <c r="T69" t="n">
         <v>50650</v>
@@ -10243,7 +10159,7 @@
         <v>56694</v>
       </c>
       <c r="AE69" t="n">
-        <v>73688.992</v>
+        <v>73689</v>
       </c>
       <c r="AF69" t="n">
         <v>149743.008</v>
@@ -10255,7 +10171,7 @@
         <v>88858</v>
       </c>
       <c r="AI69" t="n">
-        <v>64348.992</v>
+        <v>64348.984</v>
       </c>
       <c r="AJ69" t="n">
         <v>79315</v>
@@ -10267,7 +10183,7 @@
         <v>48724</v>
       </c>
       <c r="AM69" t="n">
-        <v>12392</v>
+        <v>12392.008</v>
       </c>
       <c r="AN69" t="n">
         <v>42534</v>
@@ -10311,7 +10227,7 @@
         <v>-222110</v>
       </c>
       <c r="G70" t="n">
-        <v>66706.048</v>
+        <v>66706</v>
       </c>
       <c r="H70" t="n">
         <v>-30804</v>
@@ -10323,7 +10239,7 @@
         <v>-69306</v>
       </c>
       <c r="K70" t="n">
-        <v>-92876</v>
+        <v>-92876.008</v>
       </c>
       <c r="L70" t="n">
         <v>-141455.008</v>
@@ -10359,7 +10275,7 @@
         <v>-126375</v>
       </c>
       <c r="W70" t="n">
-        <v>-58009.008</v>
+        <v>-58009.016</v>
       </c>
       <c r="X70" t="n">
         <v>-110508</v>
@@ -10383,7 +10299,7 @@
         <v>85579</v>
       </c>
       <c r="AE70" t="n">
-        <v>-406245.024</v>
+        <v>-406244.992</v>
       </c>
       <c r="AF70" t="n">
         <v>9957</v>
@@ -10395,7 +10311,7 @@
         <v>-194202</v>
       </c>
       <c r="AI70" t="n">
-        <v>-118811.008</v>
+        <v>-118811</v>
       </c>
       <c r="AJ70" t="n">
         <v>-46852</v>
@@ -10895,7 +10811,7 @@
         <v>28743</v>
       </c>
       <c r="O74" t="n">
-        <v>119568.992</v>
+        <v>119569</v>
       </c>
       <c r="P74" t="n">
         <v>41185</v>
@@ -10919,7 +10835,7 @@
         <v>237016.992</v>
       </c>
       <c r="W74" t="n">
-        <v>243513.088</v>
+        <v>243513.024</v>
       </c>
       <c r="X74" t="n">
         <v>184598</v>
@@ -10955,7 +10871,7 @@
         <v>175336</v>
       </c>
       <c r="AI74" t="n">
-        <v>251569.984</v>
+        <v>251570</v>
       </c>
       <c r="AJ74" t="n">
         <v>275032</v>
@@ -10967,7 +10883,7 @@
         <v>278668</v>
       </c>
       <c r="AM74" t="n">
-        <v>135218.048</v>
+        <v>135218.016</v>
       </c>
       <c r="AN74" t="n">
         <v>105222</v>
@@ -11071,7 +10987,7 @@
         <v>-118144</v>
       </c>
       <c r="AA75" t="n">
-        <v>-27972</v>
+        <v>-27971.992</v>
       </c>
       <c r="AB75" t="n">
         <v>-75775</v>
@@ -11083,7 +10999,7 @@
         <v>-10921</v>
       </c>
       <c r="AE75" t="n">
-        <v>12356.992</v>
+        <v>12357</v>
       </c>
       <c r="AF75" t="n">
         <v>-81313</v>
@@ -11187,7 +11103,7 @@
         <v>143243.008</v>
       </c>
       <c r="S76" t="n">
-        <v>-133108.016</v>
+        <v>-133108.008</v>
       </c>
       <c r="T76" t="n">
         <v>-23123</v>
@@ -11247,7 +11163,7 @@
         <v>-67016</v>
       </c>
       <c r="AM76" t="n">
-        <v>-41369.984</v>
+        <v>-41370</v>
       </c>
       <c r="AN76" t="n">
         <v>12457</v>
@@ -11259,7 +11175,7 @@
         <v>796206.976</v>
       </c>
       <c r="AQ76" t="n">
-        <v>364769.984</v>
+        <v>364770.016</v>
       </c>
       <c r="AR76" t="n">
         <v>-26838</v>
@@ -11783,7 +11699,7 @@
         <v>296835.008</v>
       </c>
       <c r="AE80" t="n">
-        <v>172168</v>
+        <v>172168.016</v>
       </c>
       <c r="AF80" t="n">
         <v>348980</v>
@@ -11795,7 +11711,7 @@
         <v>277467.008</v>
       </c>
       <c r="AI80" t="n">
-        <v>295734.912</v>
+        <v>295734.944</v>
       </c>
       <c r="AJ80" t="n">
         <v>273243.008</v>
@@ -11819,7 +11735,7 @@
         <v>-1657662.976</v>
       </c>
       <c r="AQ80" t="n">
-        <v>-2985954.304</v>
+        <v>-2985954.048</v>
       </c>
       <c r="AR80" t="n">
         <v>2862</v>
